--- a/issue66/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/issue66/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T13:12:46+00:00</t>
+    <t>2024-04-11T13:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issue66/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/issue66/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T13:39:56+00:00</t>
+    <t>2024-04-15T10:46:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issue66/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/issue66/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T10:46:34+00:00</t>
+    <t>2024-04-16T07:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
